--- a/Code/Results/Cases/Case_4_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_245/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.325718200141353</v>
+        <v>1.052343858745701</v>
       </c>
       <c r="C2">
-        <v>0.4794583961011938</v>
+        <v>0.1875371153331002</v>
       </c>
       <c r="D2">
-        <v>0.2004007007080872</v>
+        <v>0.07843894618501679</v>
       </c>
       <c r="E2">
-        <v>0.03548694518684981</v>
+        <v>0.0894042697841797</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000793404523139256</v>
+        <v>0.002449270318185254</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.396853486980028</v>
+        <v>0.8132819134243903</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1635048451143319</v>
+        <v>0.2075585828297832</v>
       </c>
       <c r="M2">
-        <v>0.4013466153010583</v>
+        <v>0.238389857254262</v>
       </c>
       <c r="N2">
-        <v>0.7301627835261506</v>
+        <v>1.409308619173</v>
       </c>
       <c r="O2">
-        <v>2.320532066877576</v>
+        <v>3.45736719679735</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.020298905784614</v>
+        <v>0.9657966250594541</v>
       </c>
       <c r="C3">
-        <v>0.4249912300169285</v>
+        <v>0.1701085491547474</v>
       </c>
       <c r="D3">
-        <v>0.1736251481000437</v>
+        <v>0.0711607546129045</v>
       </c>
       <c r="E3">
-        <v>0.03638743169393532</v>
+        <v>0.08997966645856592</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007981917829138873</v>
+        <v>0.002452490693154787</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3892871158937012</v>
+        <v>0.818311894595162</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1483634915127965</v>
+        <v>0.2048095850056555</v>
       </c>
       <c r="M3">
-        <v>0.3500289676575008</v>
+        <v>0.2246725768106259</v>
       </c>
       <c r="N3">
-        <v>0.7669623897180884</v>
+        <v>1.424864717837735</v>
       </c>
       <c r="O3">
-        <v>2.168025912274373</v>
+        <v>3.447839505702461</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.833537393142024</v>
+        <v>0.9129031115281236</v>
       </c>
       <c r="C4">
-        <v>0.3915685288196471</v>
+        <v>0.1593274632390091</v>
       </c>
       <c r="D4">
-        <v>0.1573625018515799</v>
+        <v>0.06672771432938873</v>
       </c>
       <c r="E4">
-        <v>0.03696883167654469</v>
+        <v>0.09035340718596996</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008012285345229482</v>
+        <v>0.002454574854748242</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3856092842529151</v>
+        <v>0.8218745917599932</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1392607627598181</v>
+        <v>0.2032254755952252</v>
       </c>
       <c r="M4">
-        <v>0.3187278614056339</v>
+        <v>0.216337941850739</v>
       </c>
       <c r="N4">
-        <v>0.7906719979944334</v>
+        <v>1.434954338134013</v>
       </c>
       <c r="O4">
-        <v>2.079376059184881</v>
+        <v>3.444215274260131</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.757588469963252</v>
+        <v>0.8914117087055331</v>
       </c>
       <c r="C5">
-        <v>0.3779471925308542</v>
+        <v>0.1549140874368788</v>
       </c>
       <c r="D5">
-        <v>0.1507745088810566</v>
+        <v>0.06493018536927764</v>
       </c>
       <c r="E5">
-        <v>0.0372128627964895</v>
+        <v>0.09051085975938533</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008024910193996993</v>
+        <v>0.002455451114964365</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3843413713955499</v>
+        <v>0.8234455709790502</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1355967762000176</v>
+        <v>0.202606080289975</v>
       </c>
       <c r="M5">
-        <v>0.3060179645729875</v>
+        <v>0.2129637644178075</v>
       </c>
       <c r="N5">
-        <v>0.800606294518218</v>
+        <v>1.439201258419725</v>
       </c>
       <c r="O5">
-        <v>2.04442423390924</v>
+        <v>3.443297439859009</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.744985763983777</v>
+        <v>0.8878469221724288</v>
       </c>
       <c r="C6">
-        <v>0.3756851205055511</v>
+        <v>0.1541800447167816</v>
       </c>
       <c r="D6">
-        <v>0.1496827880637994</v>
+        <v>0.06463224797890632</v>
       </c>
       <c r="E6">
-        <v>0.03725381144950174</v>
+        <v>0.0905373159680094</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008027021772912377</v>
+        <v>0.002455598247282425</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3841444225035247</v>
+        <v>0.8237136241907059</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1349910241443339</v>
+        <v>0.2025048104014431</v>
       </c>
       <c r="M6">
-        <v>0.3039100569148161</v>
+        <v>0.2124048338831344</v>
       </c>
       <c r="N6">
-        <v>0.8022721113177589</v>
+        <v>1.439914629408907</v>
       </c>
       <c r="O6">
-        <v>2.038689116819342</v>
+        <v>3.443178782279858</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.832512524749575</v>
+        <v>0.9126130139177633</v>
       </c>
       <c r="C7">
-        <v>0.3913848402385725</v>
+        <v>0.1592680237508262</v>
       </c>
       <c r="D7">
-        <v>0.1572735023441538</v>
+        <v>0.06670343594225869</v>
       </c>
       <c r="E7">
-        <v>0.03697209407128715</v>
+        <v>0.09035550978111961</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008012454590309719</v>
+        <v>0.002454586563097148</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3855912662173431</v>
+        <v>0.8218952962409247</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1392111692473819</v>
+        <v>0.2032170163051532</v>
       </c>
       <c r="M7">
-        <v>0.3185562754994677</v>
+        <v>0.2162923461849644</v>
       </c>
       <c r="N7">
-        <v>0.7908048822987013</v>
+        <v>1.435011065682055</v>
       </c>
       <c r="O7">
-        <v>2.078900038076853</v>
+        <v>3.444200633215303</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.220228576589022</v>
+        <v>1.022451750871767</v>
       </c>
       <c r="C8">
-        <v>0.4606698728292429</v>
+        <v>0.18154437277542</v>
       </c>
       <c r="D8">
-        <v>0.1911282037186055</v>
+        <v>0.07592197484440533</v>
       </c>
       <c r="E8">
-        <v>0.03579148144375632</v>
+        <v>0.08959842878285162</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007950352754519335</v>
+        <v>0.002450358578654055</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3940359263268149</v>
+        <v>0.8149177509350807</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1582417291528202</v>
+        <v>0.2065892126129256</v>
       </c>
       <c r="M8">
-        <v>0.3836048705159101</v>
+        <v>0.2336420058127686</v>
       </c>
       <c r="N8">
-        <v>0.7426151424994814</v>
+        <v>1.414560680339413</v>
       </c>
       <c r="O8">
-        <v>2.266862189197951</v>
+        <v>3.453619689958117</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.988351608046287</v>
+        <v>1.23976827902294</v>
       </c>
       <c r="C9">
-        <v>0.5970175602129473</v>
+        <v>0.2245924775766071</v>
       </c>
       <c r="D9">
-        <v>0.2591936307435958</v>
+        <v>0.09428590218382737</v>
       </c>
       <c r="E9">
-        <v>0.03370520704716362</v>
+        <v>0.08827559113032768</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007836054073882342</v>
+        <v>0.002442911483852271</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4188792662267176</v>
+        <v>0.8050032482231515</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1972639379792867</v>
+        <v>0.2140242305482971</v>
       </c>
       <c r="M9">
-        <v>0.5131491190951252</v>
+        <v>0.2683560515254442</v>
       </c>
       <c r="N9">
-        <v>0.6573300198799679</v>
+        <v>1.378726612629297</v>
       </c>
       <c r="O9">
-        <v>2.678949131270031</v>
+        <v>3.48978588925695</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.560085203273957</v>
+        <v>1.400572137335416</v>
       </c>
       <c r="C10">
-        <v>0.6979725230911811</v>
+        <v>0.2558326173441969</v>
       </c>
       <c r="D10">
-        <v>0.3106239184518955</v>
+        <v>0.1079571141624029</v>
       </c>
       <c r="E10">
-        <v>0.03231598298502458</v>
+        <v>0.0874017339444213</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007756280855261304</v>
+        <v>0.002437949367938359</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4430788493605462</v>
+        <v>0.8000245000666339</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2272164830498582</v>
+        <v>0.2199870141572831</v>
       </c>
       <c r="M10">
-        <v>0.6100396689346468</v>
+        <v>0.2942774209108592</v>
       </c>
       <c r="N10">
-        <v>0.6008367567942692</v>
+        <v>1.355000492088845</v>
       </c>
       <c r="O10">
-        <v>3.014060276965324</v>
+        <v>3.527201898375466</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.822426866417118</v>
+        <v>1.473968320568133</v>
       </c>
       <c r="C11">
-        <v>0.7441886874840122</v>
+        <v>0.2699607024801196</v>
       </c>
       <c r="D11">
-        <v>0.3344263999066612</v>
+        <v>0.1142164934257295</v>
       </c>
       <c r="E11">
-        <v>0.03171611470874891</v>
+        <v>0.08702535159881075</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007720816673594273</v>
+        <v>0.002435801439776066</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4555954290947781</v>
+        <v>0.7982619491077116</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2411800934887509</v>
+        <v>0.2228081314950003</v>
       </c>
       <c r="M11">
-        <v>0.6546123723806687</v>
+        <v>0.306159479490546</v>
       </c>
       <c r="N11">
-        <v>0.5766071884410131</v>
+        <v>1.344771455226653</v>
       </c>
       <c r="O11">
-        <v>3.174946042347187</v>
+        <v>3.54659113966764</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.922150562958223</v>
+        <v>1.501796040894703</v>
       </c>
       <c r="C12">
-        <v>0.7617422321331162</v>
+        <v>0.2752986254452594</v>
       </c>
       <c r="D12">
-        <v>0.3435069186316468</v>
+        <v>0.1165926033560964</v>
       </c>
       <c r="E12">
-        <v>0.03149366390549757</v>
+        <v>0.08688585582093666</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007707498351980203</v>
+        <v>0.002435003716960297</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4605716101996578</v>
+        <v>0.7976668874563018</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2465216301837359</v>
+        <v>0.2238920043638899</v>
       </c>
       <c r="M12">
-        <v>0.6715732644582815</v>
+        <v>0.3106717621412329</v>
       </c>
       <c r="N12">
-        <v>0.5676554938322802</v>
+        <v>1.340979119184045</v>
       </c>
       <c r="O12">
-        <v>3.237211148886274</v>
+        <v>3.554274805952417</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.900655409672936</v>
+        <v>1.495801341636366</v>
       </c>
       <c r="C13">
-        <v>0.7579592484478894</v>
+        <v>0.2741495470803272</v>
       </c>
       <c r="D13">
-        <v>0.341548141108845</v>
+        <v>0.1160806063456903</v>
       </c>
       <c r="E13">
-        <v>0.03154136183599565</v>
+        <v>0.08691576400526291</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007710361870591286</v>
+        <v>0.002435174825994691</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4594890569847294</v>
+        <v>0.7977918232447365</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.245368753623012</v>
+        <v>0.2236578808274032</v>
       </c>
       <c r="M13">
-        <v>0.6679165971815806</v>
+        <v>0.3096993946906821</v>
       </c>
       <c r="N13">
-        <v>0.5695732559447428</v>
+        <v>1.341792255143837</v>
       </c>
       <c r="O13">
-        <v>3.223739456752355</v>
+        <v>3.552604795274505</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.830623229114849</v>
+        <v>1.47625704546823</v>
       </c>
       <c r="C14">
-        <v>0.7456317120115443</v>
+        <v>0.2704000992728197</v>
       </c>
       <c r="D14">
-        <v>0.3351720645898268</v>
+        <v>0.1144118606468396</v>
       </c>
       <c r="E14">
-        <v>0.03169771868254634</v>
+        <v>0.08701381447492695</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007719718783839686</v>
+        <v>0.00243573549738374</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4559999664988581</v>
+        <v>0.7982115416175688</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2416184349738018</v>
+        <v>0.2228969904229388</v>
       </c>
       <c r="M14">
-        <v>0.6560060434413799</v>
+        <v>0.3065304520976326</v>
       </c>
       <c r="N14">
-        <v>0.5758661742345943</v>
+        <v>1.344457830154152</v>
       </c>
       <c r="O14">
-        <v>3.180040985007054</v>
+        <v>3.547216433182143</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.7877778063405</v>
+        <v>1.46429001664427</v>
       </c>
       <c r="C15">
-        <v>0.7380879067221144</v>
+        <v>0.2681018782662647</v>
       </c>
       <c r="D15">
-        <v>0.33127552978452</v>
+        <v>0.1133904643070593</v>
       </c>
       <c r="E15">
-        <v>0.03179410747093148</v>
+        <v>0.08707426785007299</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007725464413568475</v>
+        <v>0.002436080960799961</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4538941948730439</v>
+        <v>0.7984780613842233</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2393284271611407</v>
+        <v>0.222432950414003</v>
       </c>
       <c r="M15">
-        <v>0.6487215216080244</v>
+        <v>0.3045910455133054</v>
       </c>
       <c r="N15">
-        <v>0.5797502552922893</v>
+        <v>1.346101145535155</v>
       </c>
       <c r="O15">
-        <v>3.153453022922577</v>
+        <v>3.543960387291406</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.542990660457349</v>
+        <v>1.395780369656336</v>
       </c>
       <c r="C16">
-        <v>0.6949589332752737</v>
+        <v>0.2549076298735145</v>
       </c>
       <c r="D16">
-        <v>0.3090772687927199</v>
+        <v>0.1075488618027123</v>
       </c>
       <c r="E16">
-        <v>0.03235583927359298</v>
+        <v>0.08742675613101725</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007758614501532638</v>
+        <v>0.002438091934391408</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4422928447230134</v>
+        <v>0.800149807169646</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2263111667519695</v>
+        <v>0.2198048295611414</v>
       </c>
       <c r="M16">
-        <v>0.6071376317697244</v>
+        <v>0.2935027020806871</v>
       </c>
       <c r="N16">
-        <v>0.6024508082316231</v>
+        <v>1.355680339933517</v>
       </c>
       <c r="O16">
-        <v>3.003726526656891</v>
+        <v>3.525982494060401</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.393438183415299</v>
+        <v>1.353814028878162</v>
       </c>
       <c r="C17">
-        <v>0.6685825452183565</v>
+        <v>0.2467919947150108</v>
       </c>
       <c r="D17">
-        <v>0.2955693748243391</v>
+        <v>0.1039755630791888</v>
       </c>
       <c r="E17">
-        <v>0.03270872690459925</v>
+        <v>0.08764840507490179</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007779157196749848</v>
+        <v>0.002439353558315445</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4355754807977021</v>
+        <v>0.8013041263103702</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2184156614487875</v>
+        <v>0.218220352038756</v>
       </c>
       <c r="M17">
-        <v>0.5817618535428011</v>
+        <v>0.2867233618690292</v>
       </c>
       <c r="N17">
-        <v>0.6167616292267724</v>
+        <v>1.36170138631368</v>
       </c>
       <c r="O17">
-        <v>2.914123651192455</v>
+        <v>3.515560834765665</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.307628385941882</v>
+        <v>1.329699294918953</v>
       </c>
       <c r="C18">
-        <v>0.6534382676886139</v>
+        <v>0.2421162703988955</v>
       </c>
       <c r="D18">
-        <v>0.2878377090534343</v>
+        <v>0.1019240855731596</v>
       </c>
       <c r="E18">
-        <v>0.03291471383080591</v>
+        <v>0.08777788191476388</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007791050947619012</v>
+        <v>0.002440089509364969</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4318525168965621</v>
+        <v>0.8020153307871709</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.21390585908064</v>
+        <v>0.2173192285446532</v>
       </c>
       <c r="M18">
-        <v>0.5672124348579715</v>
+        <v>0.2828325746390448</v>
       </c>
       <c r="N18">
-        <v>0.6251303669476407</v>
+        <v>1.365217624159161</v>
       </c>
       <c r="O18">
-        <v>2.863372841651966</v>
+        <v>3.509789459964395</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.278608899306846</v>
+        <v>1.321538479350636</v>
       </c>
       <c r="C19">
-        <v>0.648314957727564</v>
+        <v>0.240531809799279</v>
       </c>
       <c r="D19">
-        <v>0.2852261278601844</v>
+        <v>0.1012301405387603</v>
       </c>
       <c r="E19">
-        <v>0.03298497268041412</v>
+        <v>0.08782206261073133</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007795091604467964</v>
+        <v>0.00244034046060899</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.430615577269208</v>
+        <v>0.8022642467107417</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.212384172622734</v>
+        <v>0.217015881233749</v>
       </c>
       <c r="M19">
-        <v>0.562293848918749</v>
+        <v>0.2815166880141504</v>
       </c>
       <c r="N19">
-        <v>0.6279871422132004</v>
+        <v>1.366417278529475</v>
       </c>
       <c r="O19">
-        <v>2.846320845371736</v>
+        <v>3.507873628741436</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.409336295805076</v>
+        <v>1.358279025233287</v>
       </c>
       <c r="C20">
-        <v>0.6713875172488031</v>
+        <v>0.2476567286588534</v>
       </c>
       <c r="D20">
-        <v>0.2970033496766007</v>
+        <v>0.1043555544411419</v>
       </c>
       <c r="E20">
-        <v>0.03267084870491033</v>
+        <v>0.08762460424203322</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007776962357152167</v>
+        <v>0.00243921819108626</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4362758583995472</v>
+        <v>0.8011763536673797</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2192528566027647</v>
+        <v>0.2183879643218489</v>
       </c>
       <c r="M20">
-        <v>0.5844583065944562</v>
+        <v>0.2874441547633992</v>
       </c>
       <c r="N20">
-        <v>0.615223898426617</v>
+        <v>1.361054940466403</v>
       </c>
       <c r="O20">
-        <v>2.923579752999785</v>
+        <v>3.516647164373921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.851182578382463</v>
+        <v>1.481996760586355</v>
       </c>
       <c r="C21">
-        <v>0.7492510944158823</v>
+        <v>0.2715017316089927</v>
       </c>
       <c r="D21">
-        <v>0.3370429817431102</v>
+        <v>0.1149018535734854</v>
       </c>
       <c r="E21">
-        <v>0.03165166440271883</v>
+        <v>0.08698493244836869</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007716967476294837</v>
+        <v>0.002435570390548425</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4570182166629237</v>
+        <v>0.7980862946605924</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2427184902286115</v>
+        <v>0.2231200599594132</v>
       </c>
       <c r="M21">
-        <v>0.6595021413759312</v>
+        <v>0.3074609012610665</v>
       </c>
       <c r="N21">
-        <v>0.5740116234214412</v>
+        <v>1.34367268248781</v>
       </c>
       <c r="O21">
-        <v>3.192838820437458</v>
+        <v>3.548789854428605</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.142202641427389</v>
+        <v>1.563052139216666</v>
       </c>
       <c r="C22">
-        <v>0.8004510212559808</v>
+        <v>0.2870153786429057</v>
       </c>
       <c r="D22">
-        <v>0.3636064204134755</v>
+        <v>0.1218283987212203</v>
       </c>
       <c r="E22">
-        <v>0.03101304742288802</v>
+        <v>0.08658453946455791</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007678401599462148</v>
+        <v>0.002433277533983916</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4719628561982887</v>
+        <v>0.7964887062997832</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2583710665956147</v>
+        <v>0.2263035330294088</v>
       </c>
       <c r="M22">
-        <v>0.7090322675760916</v>
+        <v>0.320617556170177</v>
       </c>
       <c r="N22">
-        <v>0.548386208968676</v>
+        <v>1.332785572852199</v>
       </c>
       <c r="O22">
-        <v>3.376699320782734</v>
+        <v>3.571787161351921</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.986654281920437</v>
+        <v>1.519773558379995</v>
       </c>
       <c r="C23">
-        <v>0.773092381482428</v>
+        <v>0.2787419350758</v>
       </c>
       <c r="D23">
-        <v>0.3493898339228139</v>
+        <v>0.118128457850105</v>
       </c>
       <c r="E23">
-        <v>0.03135134325059585</v>
+        <v>0.08679662253944764</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007698928597073477</v>
+        <v>0.002434492955247087</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4638527043351459</v>
+        <v>0.7973027126632886</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2499862079419302</v>
+        <v>0.2245961614798233</v>
       </c>
       <c r="M23">
-        <v>0.6825489704904228</v>
+        <v>0.3135888394036712</v>
       </c>
       <c r="N23">
-        <v>0.5619388998647779</v>
+        <v>1.338552908570762</v>
       </c>
       <c r="O23">
-        <v>3.277803271684377</v>
+        <v>3.559330700151691</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.402148234127083</v>
+        <v>1.356260362059516</v>
       </c>
       <c r="C24">
-        <v>0.6701193283261659</v>
+        <v>0.2472658133921186</v>
       </c>
       <c r="D24">
-        <v>0.2963549437523909</v>
+        <v>0.1041837514435855</v>
       </c>
       <c r="E24">
-        <v>0.03268796376775007</v>
+        <v>0.08763535821906221</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007777954383337094</v>
+        <v>0.002439279357472234</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4359587863849796</v>
+        <v>0.8012339715060079</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2188742693983983</v>
+        <v>0.2183121562369763</v>
       </c>
       <c r="M24">
-        <v>0.5832391180804777</v>
+        <v>0.2871182632700808</v>
       </c>
       <c r="N24">
-        <v>0.6159186674519539</v>
+        <v>1.361347028375889</v>
       </c>
       <c r="O24">
-        <v>2.919302282048307</v>
+        <v>3.516155348969932</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.779458011472798</v>
+        <v>1.180775734696056</v>
       </c>
       <c r="C25">
-        <v>0.5600325707945046</v>
+        <v>0.2130148592328567</v>
       </c>
       <c r="D25">
-        <v>0.2405610218777952</v>
+        <v>0.08928683131432535</v>
       </c>
       <c r="E25">
-        <v>0.03424469481993098</v>
+        <v>0.08861619500182483</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000786620956365817</v>
+        <v>0.002444836311374912</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4111829405097183</v>
+        <v>0.8072811119820358</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1865008335160852</v>
+        <v>0.211924940968423</v>
       </c>
       <c r="M25">
-        <v>0.4778417001432587</v>
+        <v>0.2588914336270989</v>
       </c>
       <c r="N25">
-        <v>0.6793612343067501</v>
+        <v>1.387963803326919</v>
       </c>
       <c r="O25">
-        <v>2.562235820377396</v>
+        <v>3.47810166147579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_245/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_245/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.052343858745701</v>
+        <v>2.325718200141353</v>
       </c>
       <c r="C2">
-        <v>0.1875371153331002</v>
+        <v>0.4794583961013643</v>
       </c>
       <c r="D2">
-        <v>0.07843894618501679</v>
+        <v>0.2004007007079593</v>
       </c>
       <c r="E2">
-        <v>0.0894042697841797</v>
+        <v>0.03548694518684881</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002449270318185254</v>
+        <v>0.0007934045231395036</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8132819134243903</v>
+        <v>0.3968534869800209</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2075585828297832</v>
+        <v>0.1635048451143319</v>
       </c>
       <c r="M2">
-        <v>0.238389857254262</v>
+        <v>0.4013466153010725</v>
       </c>
       <c r="N2">
-        <v>1.409308619173</v>
+        <v>0.7301627835262039</v>
       </c>
       <c r="O2">
-        <v>3.45736719679735</v>
+        <v>2.32053206687749</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9657966250594541</v>
+        <v>2.020298905784671</v>
       </c>
       <c r="C3">
-        <v>0.1701085491547474</v>
+        <v>0.4249912300169001</v>
       </c>
       <c r="D3">
-        <v>0.0711607546129045</v>
+        <v>0.1736251481000437</v>
       </c>
       <c r="E3">
-        <v>0.08997966645856592</v>
+        <v>0.03638743169392089</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002452490693154787</v>
+        <v>0.0007981917829161649</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.818311894595162</v>
+        <v>0.3892871158937261</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2048095850056555</v>
+        <v>0.1483634915127325</v>
       </c>
       <c r="M3">
-        <v>0.2246725768106259</v>
+        <v>0.3500289676575008</v>
       </c>
       <c r="N3">
-        <v>1.424864717837735</v>
+        <v>0.7669623897180848</v>
       </c>
       <c r="O3">
-        <v>3.447839505702461</v>
+        <v>2.168025912274317</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9129031115281236</v>
+        <v>1.833537393141739</v>
       </c>
       <c r="C4">
-        <v>0.1593274632390091</v>
+        <v>0.3915685288193629</v>
       </c>
       <c r="D4">
-        <v>0.06672771432938873</v>
+        <v>0.1573625018515799</v>
       </c>
       <c r="E4">
-        <v>0.09035340718596996</v>
+        <v>0.03696883167655796</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002454574854748242</v>
+        <v>0.0008012285345487008</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8218745917599932</v>
+        <v>0.3856092842529151</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2032254755952252</v>
+        <v>0.1392607627598892</v>
       </c>
       <c r="M4">
-        <v>0.216337941850739</v>
+        <v>0.318727861405641</v>
       </c>
       <c r="N4">
-        <v>1.434954338134013</v>
+        <v>0.7906719979944441</v>
       </c>
       <c r="O4">
-        <v>3.444215274260131</v>
+        <v>2.079376059184909</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8914117087055331</v>
+        <v>1.757588469963196</v>
       </c>
       <c r="C5">
-        <v>0.1549140874368788</v>
+        <v>0.3779471925310531</v>
       </c>
       <c r="D5">
-        <v>0.06493018536927764</v>
+        <v>0.1507745088808718</v>
       </c>
       <c r="E5">
-        <v>0.09051085975938533</v>
+        <v>0.03721286279647412</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002455451114964365</v>
+        <v>0.0008024910194031755</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8234455709790502</v>
+        <v>0.3843413713955783</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.202606080289975</v>
+        <v>0.1355967761999324</v>
       </c>
       <c r="M5">
-        <v>0.2129637644178075</v>
+        <v>0.3060179645729946</v>
       </c>
       <c r="N5">
-        <v>1.439201258419725</v>
+        <v>0.8006062945182855</v>
       </c>
       <c r="O5">
-        <v>3.443297439859009</v>
+        <v>2.04442423390924</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8878469221724288</v>
+        <v>1.744985763983635</v>
       </c>
       <c r="C6">
-        <v>0.1541800447167816</v>
+        <v>0.3756851205055796</v>
       </c>
       <c r="D6">
-        <v>0.06463224797890632</v>
+        <v>0.1496827880637994</v>
       </c>
       <c r="E6">
-        <v>0.0905373159680094</v>
+        <v>0.03725381144948653</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002455598247282425</v>
+        <v>0.0008027021772946128</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8237136241907059</v>
+        <v>0.3841444225035495</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2025048104014431</v>
+        <v>0.1349910241443553</v>
       </c>
       <c r="M6">
-        <v>0.2124048338831344</v>
+        <v>0.3039100569148161</v>
       </c>
       <c r="N6">
-        <v>1.439914629408907</v>
+        <v>0.8022721113177589</v>
       </c>
       <c r="O6">
-        <v>3.443178782279858</v>
+        <v>2.038689116819398</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9126130139177633</v>
+        <v>1.832512524749461</v>
       </c>
       <c r="C7">
-        <v>0.1592680237508262</v>
+        <v>0.3913848402384588</v>
       </c>
       <c r="D7">
-        <v>0.06670343594225869</v>
+        <v>0.1572735023442675</v>
       </c>
       <c r="E7">
-        <v>0.09035550978111961</v>
+        <v>0.036972094071272</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002454586563097148</v>
+        <v>0.0008012454590308444</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8218952962409247</v>
+        <v>0.385591266217336</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2032170163051532</v>
+        <v>0.1392111692474245</v>
       </c>
       <c r="M7">
-        <v>0.2162923461849644</v>
+        <v>0.3185562754994677</v>
       </c>
       <c r="N7">
-        <v>1.435011065682055</v>
+        <v>0.7908048822987048</v>
       </c>
       <c r="O7">
-        <v>3.444200633215303</v>
+        <v>2.07890003807691</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.022451750871767</v>
+        <v>2.220228576588966</v>
       </c>
       <c r="C8">
-        <v>0.18154437277542</v>
+        <v>0.4606698728289302</v>
       </c>
       <c r="D8">
-        <v>0.07592197484440533</v>
+        <v>0.1911282037186623</v>
       </c>
       <c r="E8">
-        <v>0.08959842878285162</v>
+        <v>0.03579148144376842</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002450358578654055</v>
+        <v>0.0007950352754219436</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8149177509350807</v>
+        <v>0.3940359263268221</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2065892126129256</v>
+        <v>0.1582417291528273</v>
       </c>
       <c r="M8">
-        <v>0.2336420058127686</v>
+        <v>0.3836048705159101</v>
       </c>
       <c r="N8">
-        <v>1.414560680339413</v>
+        <v>0.7426151424995204</v>
       </c>
       <c r="O8">
-        <v>3.453619689958117</v>
+        <v>2.266862189197951</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.23976827902294</v>
+        <v>2.988351608046457</v>
       </c>
       <c r="C9">
-        <v>0.2245924775766071</v>
+        <v>0.5970175602128052</v>
       </c>
       <c r="D9">
-        <v>0.09428590218382737</v>
+        <v>0.2591936307434679</v>
       </c>
       <c r="E9">
-        <v>0.08827559113032768</v>
+        <v>0.03370520704715874</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002442911483852271</v>
+        <v>0.0007836054073869148</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8050032482231515</v>
+        <v>0.4188792662267389</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2140242305482971</v>
+        <v>0.1972639379792867</v>
       </c>
       <c r="M9">
-        <v>0.2683560515254442</v>
+        <v>0.5131491190951181</v>
       </c>
       <c r="N9">
-        <v>1.378726612629297</v>
+        <v>0.6573300198799039</v>
       </c>
       <c r="O9">
-        <v>3.48978588925695</v>
+        <v>2.678949131270059</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.400572137335416</v>
+        <v>3.5600852032739</v>
       </c>
       <c r="C10">
-        <v>0.2558326173441969</v>
+        <v>0.6979725230909253</v>
       </c>
       <c r="D10">
-        <v>0.1079571141624029</v>
+        <v>0.3106239184519808</v>
       </c>
       <c r="E10">
-        <v>0.0874017339444213</v>
+        <v>0.03231598298505489</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002437949367938359</v>
+        <v>0.0007756280855933939</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8000245000666339</v>
+        <v>0.4430788493605604</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2199870141572831</v>
+        <v>0.2272164830497871</v>
       </c>
       <c r="M10">
-        <v>0.2942774209108592</v>
+        <v>0.6100396689346752</v>
       </c>
       <c r="N10">
-        <v>1.355000492088845</v>
+        <v>0.6008367567942621</v>
       </c>
       <c r="O10">
-        <v>3.527201898375466</v>
+        <v>3.014060276965381</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.473968320568133</v>
+        <v>3.822426866417231</v>
       </c>
       <c r="C11">
-        <v>0.2699607024801196</v>
+        <v>0.7441886874840122</v>
       </c>
       <c r="D11">
-        <v>0.1142164934257295</v>
+        <v>0.3344263999065618</v>
       </c>
       <c r="E11">
-        <v>0.08702535159881075</v>
+        <v>0.03171611470874924</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002435801439776066</v>
+        <v>0.0007720816673600683</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7982619491077116</v>
+        <v>0.455595429094771</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2228081314950003</v>
+        <v>0.2411800934887225</v>
       </c>
       <c r="M11">
-        <v>0.306159479490546</v>
+        <v>0.6546123723806758</v>
       </c>
       <c r="N11">
-        <v>1.344771455226653</v>
+        <v>0.5766071884410167</v>
       </c>
       <c r="O11">
-        <v>3.54659113966764</v>
+        <v>3.174946042347187</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.501796040894703</v>
+        <v>3.922150562958052</v>
       </c>
       <c r="C12">
-        <v>0.2752986254452594</v>
+        <v>0.7617422321328036</v>
       </c>
       <c r="D12">
-        <v>0.1165926033560964</v>
+        <v>0.3435069186314763</v>
       </c>
       <c r="E12">
-        <v>0.08688585582093666</v>
+        <v>0.03149366390549624</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002435003716960297</v>
+        <v>0.0007707498351622494</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7976668874563018</v>
+        <v>0.4605716101996506</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2238920043638899</v>
+        <v>0.2465216301836648</v>
       </c>
       <c r="M12">
-        <v>0.3106717621412329</v>
+        <v>0.6715732644582886</v>
       </c>
       <c r="N12">
-        <v>1.340979119184045</v>
+        <v>0.567655493832337</v>
       </c>
       <c r="O12">
-        <v>3.554274805952417</v>
+        <v>3.237211148886274</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.495801341636366</v>
+        <v>3.900655409672936</v>
       </c>
       <c r="C13">
-        <v>0.2741495470803272</v>
+        <v>0.7579592484480315</v>
       </c>
       <c r="D13">
-        <v>0.1160806063456903</v>
+        <v>0.3415481411087598</v>
       </c>
       <c r="E13">
-        <v>0.08691576400526291</v>
+        <v>0.03154136183597633</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002435174825994691</v>
+        <v>0.0007710361870235449</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7977918232447365</v>
+        <v>0.4594890569847365</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2236578808274032</v>
+        <v>0.2453687536230262</v>
       </c>
       <c r="M13">
-        <v>0.3096993946906821</v>
+        <v>0.6679165971815664</v>
       </c>
       <c r="N13">
-        <v>1.341792255143837</v>
+        <v>0.5695732559447997</v>
       </c>
       <c r="O13">
-        <v>3.552604795274505</v>
+        <v>3.22373945675244</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.47625704546823</v>
+        <v>3.830623229114678</v>
       </c>
       <c r="C14">
-        <v>0.2704000992728197</v>
+        <v>0.7456317120112033</v>
       </c>
       <c r="D14">
-        <v>0.1144118606468396</v>
+        <v>0.3351720645898411</v>
       </c>
       <c r="E14">
-        <v>0.08701381447492695</v>
+        <v>0.03169771868254878</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.00243573549738374</v>
+        <v>0.0007719718783841934</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7982115416175688</v>
+        <v>0.4559999664988652</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2228969904229388</v>
+        <v>0.241618434973816</v>
       </c>
       <c r="M14">
-        <v>0.3065304520976326</v>
+        <v>0.6560060434413799</v>
       </c>
       <c r="N14">
-        <v>1.344457830154152</v>
+        <v>0.5758661742346085</v>
       </c>
       <c r="O14">
-        <v>3.547216433182143</v>
+        <v>3.180040985007054</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.46429001664427</v>
+        <v>3.787777806340443</v>
       </c>
       <c r="C15">
-        <v>0.2681018782662647</v>
+        <v>0.7380879067220008</v>
       </c>
       <c r="D15">
-        <v>0.1133904643070593</v>
+        <v>0.3312755297843211</v>
       </c>
       <c r="E15">
-        <v>0.08707426785007299</v>
+        <v>0.03179410747095057</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002436080960799961</v>
+        <v>0.0007725464413923382</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7984780613842233</v>
+        <v>0.4538941948730297</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.222432950414003</v>
+        <v>0.2393284271609986</v>
       </c>
       <c r="M15">
-        <v>0.3045910455133054</v>
+        <v>0.6487215216080386</v>
       </c>
       <c r="N15">
-        <v>1.346101145535155</v>
+        <v>0.5797502552922893</v>
       </c>
       <c r="O15">
-        <v>3.543960387291406</v>
+        <v>3.153453022922463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.395780369656336</v>
+        <v>3.542990660457349</v>
       </c>
       <c r="C16">
-        <v>0.2549076298735145</v>
+        <v>0.6949589332753021</v>
       </c>
       <c r="D16">
-        <v>0.1075488618027123</v>
+        <v>0.3090772687924925</v>
       </c>
       <c r="E16">
-        <v>0.08742675613101725</v>
+        <v>0.03235583927359131</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002438091934391408</v>
+        <v>0.0007758614501815745</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.800149807169646</v>
+        <v>0.4422928447230063</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2198048295611414</v>
+        <v>0.2263111667519979</v>
       </c>
       <c r="M16">
-        <v>0.2935027020806871</v>
+        <v>0.6071376317697172</v>
       </c>
       <c r="N16">
-        <v>1.355680339933517</v>
+        <v>0.602450808231616</v>
       </c>
       <c r="O16">
-        <v>3.525982494060401</v>
+        <v>3.003726526656948</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353814028878162</v>
+        <v>3.393438183415356</v>
       </c>
       <c r="C17">
-        <v>0.2467919947150108</v>
+        <v>0.6685825452185838</v>
       </c>
       <c r="D17">
-        <v>0.1039755630791888</v>
+        <v>0.2955693748243959</v>
       </c>
       <c r="E17">
-        <v>0.08764840507490179</v>
+        <v>0.0327087269045967</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002439353558315445</v>
+        <v>0.0007779157196787804</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8013041263103702</v>
+        <v>0.4355754807977164</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.218220352038756</v>
+        <v>0.2184156614488302</v>
       </c>
       <c r="M17">
-        <v>0.2867233618690292</v>
+        <v>0.5817618535428153</v>
       </c>
       <c r="N17">
-        <v>1.36170138631368</v>
+        <v>0.6167616292268185</v>
       </c>
       <c r="O17">
-        <v>3.515560834765665</v>
+        <v>2.914123651192455</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.329699294918953</v>
+        <v>3.307628385941769</v>
       </c>
       <c r="C18">
-        <v>0.2421162703988955</v>
+        <v>0.653438267688415</v>
       </c>
       <c r="D18">
-        <v>0.1019240855731596</v>
+        <v>0.2878377090533917</v>
       </c>
       <c r="E18">
-        <v>0.08777788191476388</v>
+        <v>0.03291471383082056</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002440089509364969</v>
+        <v>0.0007791050947282615</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8020153307871709</v>
+        <v>0.4318525168965834</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2173192285446532</v>
+        <v>0.2139058590806968</v>
       </c>
       <c r="M18">
-        <v>0.2828325746390448</v>
+        <v>0.5672124348579786</v>
       </c>
       <c r="N18">
-        <v>1.365217624159161</v>
+        <v>0.6251303669475909</v>
       </c>
       <c r="O18">
-        <v>3.509789459964395</v>
+        <v>2.863372841651909</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.321538479350636</v>
+        <v>3.278608899307073</v>
       </c>
       <c r="C19">
-        <v>0.240531809799279</v>
+        <v>0.6483149577279619</v>
       </c>
       <c r="D19">
-        <v>0.1012301405387603</v>
+        <v>0.2852261278601702</v>
       </c>
       <c r="E19">
-        <v>0.08782206261073133</v>
+        <v>0.03298497268042966</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00244034046060899</v>
+        <v>0.0007795091604502381</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8022642467107417</v>
+        <v>0.4306155772692222</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.217015881233749</v>
+        <v>0.2123841726228193</v>
       </c>
       <c r="M19">
-        <v>0.2815166880141504</v>
+        <v>0.5622938489187561</v>
       </c>
       <c r="N19">
-        <v>1.366417278529475</v>
+        <v>0.6279871422131968</v>
       </c>
       <c r="O19">
-        <v>3.507873628741436</v>
+        <v>2.846320845371707</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.358279025233287</v>
+        <v>3.40933629580519</v>
       </c>
       <c r="C20">
-        <v>0.2476567286588534</v>
+        <v>0.6713875172488315</v>
       </c>
       <c r="D20">
-        <v>0.1043555544411419</v>
+        <v>0.2970033496767144</v>
       </c>
       <c r="E20">
-        <v>0.08762460424203322</v>
+        <v>0.03267084870490866</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00243921819108626</v>
+        <v>0.0007776962357433021</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8011763536673797</v>
+        <v>0.4362758583995472</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2183879643218489</v>
+        <v>0.2192528566027505</v>
       </c>
       <c r="M20">
-        <v>0.2874441547633992</v>
+        <v>0.5844583065944633</v>
       </c>
       <c r="N20">
-        <v>1.361054940466403</v>
+        <v>0.6152238984266134</v>
       </c>
       <c r="O20">
-        <v>3.516647164373921</v>
+        <v>2.923579752999814</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.481996760586355</v>
+        <v>3.851182578382691</v>
       </c>
       <c r="C21">
-        <v>0.2715017316089927</v>
+        <v>0.7492510944156834</v>
       </c>
       <c r="D21">
-        <v>0.1149018535734854</v>
+        <v>0.337042981743167</v>
       </c>
       <c r="E21">
-        <v>0.08698493244836869</v>
+        <v>0.03165166440273082</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002435570390548425</v>
+        <v>0.0007716967476288789</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7980862946605924</v>
+        <v>0.4570182166629095</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2231200599594132</v>
+        <v>0.2427184902285546</v>
       </c>
       <c r="M21">
-        <v>0.3074609012610665</v>
+        <v>0.6595021413759454</v>
       </c>
       <c r="N21">
-        <v>1.34367268248781</v>
+        <v>0.5740116234214341</v>
       </c>
       <c r="O21">
-        <v>3.548789854428605</v>
+        <v>3.192838820437458</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.563052139216666</v>
+        <v>4.142202641427389</v>
       </c>
       <c r="C22">
-        <v>0.2870153786429057</v>
+        <v>0.8004510212560945</v>
       </c>
       <c r="D22">
-        <v>0.1218283987212203</v>
+        <v>0.3636064204135039</v>
       </c>
       <c r="E22">
-        <v>0.08658453946455791</v>
+        <v>0.03101304742288524</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002433277533983916</v>
+        <v>0.0007678401599369799</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7964887062997832</v>
+        <v>0.4719628561982816</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2263035330294088</v>
+        <v>0.2583710665956005</v>
       </c>
       <c r="M22">
-        <v>0.320617556170177</v>
+        <v>0.7090322675760987</v>
       </c>
       <c r="N22">
-        <v>1.332785572852199</v>
+        <v>0.5483862089687257</v>
       </c>
       <c r="O22">
-        <v>3.571787161351921</v>
+        <v>3.376699320782791</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.519773558379995</v>
+        <v>3.986654281920323</v>
       </c>
       <c r="C23">
-        <v>0.2787419350758</v>
+        <v>0.7730923814825701</v>
       </c>
       <c r="D23">
-        <v>0.118128457850105</v>
+        <v>0.3493898339228139</v>
       </c>
       <c r="E23">
-        <v>0.08679662253944764</v>
+        <v>0.03135134325059497</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002434492955247087</v>
+        <v>0.0007698928596778007</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7973027126632886</v>
+        <v>0.4638527043351459</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2245961614798233</v>
+        <v>0.2499862079419159</v>
       </c>
       <c r="M23">
-        <v>0.3135888394036712</v>
+        <v>0.6825489704904442</v>
       </c>
       <c r="N23">
-        <v>1.338552908570762</v>
+        <v>0.5619388998647743</v>
       </c>
       <c r="O23">
-        <v>3.559330700151691</v>
+        <v>3.277803271684292</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.356260362059516</v>
+        <v>3.402148234127139</v>
       </c>
       <c r="C24">
-        <v>0.2472658133921186</v>
+        <v>0.6701193283263081</v>
       </c>
       <c r="D24">
-        <v>0.1041837514435855</v>
+        <v>0.2963549437523767</v>
       </c>
       <c r="E24">
-        <v>0.08763535821906221</v>
+        <v>0.03268796376776262</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002439279357472234</v>
+        <v>0.0007777954383949642</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8012339715060079</v>
+        <v>0.4359587863849796</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2183121562369763</v>
+        <v>0.2188742693984551</v>
       </c>
       <c r="M24">
-        <v>0.2871182632700808</v>
+        <v>0.5832391180804848</v>
       </c>
       <c r="N24">
-        <v>1.361347028375889</v>
+        <v>0.6159186674519539</v>
       </c>
       <c r="O24">
-        <v>3.516155348969932</v>
+        <v>2.91930228204825</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.180775734696056</v>
+        <v>2.779458011472684</v>
       </c>
       <c r="C25">
-        <v>0.2130148592328567</v>
+        <v>0.5600325707942204</v>
       </c>
       <c r="D25">
-        <v>0.08928683131432535</v>
+        <v>0.2405610218779941</v>
       </c>
       <c r="E25">
-        <v>0.08861619500182483</v>
+        <v>0.0342446948199453</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002444836311374912</v>
+        <v>0.0007866209563663418</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8072811119820358</v>
+        <v>0.4111829405097254</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.211924940968423</v>
+        <v>0.1865008335161775</v>
       </c>
       <c r="M25">
-        <v>0.2588914336270989</v>
+        <v>0.4778417001432658</v>
       </c>
       <c r="N25">
-        <v>1.387963803326919</v>
+        <v>0.679361234306743</v>
       </c>
       <c r="O25">
-        <v>3.47810166147579</v>
+        <v>2.56223582037731</v>
       </c>
     </row>
   </sheetData>
